--- a/biology/Botanique/Liste_des_villes_et_villages_fleuris_de_la_Gironde/Liste_des_villes_et_villages_fleuris_de_la_Gironde.xlsx
+++ b/biology/Botanique/Liste_des_villes_et_villages_fleuris_de_la_Gironde/Liste_des_villes_et_villages_fleuris_de_la_Gironde.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La liste des villes et villages fleuris de la Gironde dresse le nom des communes récompensées par le concours des villes et villages fleuris dans le département de la Gironde, en Nouvelle-Aquitaine.
-En 2023, 28 communes du département figurent au palmarès du concours[1], soit le même nombre de communes par rapport au palmarès de 2022.
+En 2023, 28 communes du département figurent au palmarès du concours, soit le même nombre de communes par rapport au palmarès de 2022.
 </t>
         </is>
       </c>
@@ -512,20 +524,171 @@
           <t>Communes labellisées</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">L'indication de hausse, de baisse ou de stagnation, pour la catégorie 4 fleurs, correspond au précédent résultat (année 2023 par rapport à 2022). Les autres catégories (3, 2 et 1 fleur) n'ont pas d'indication car leurs différents résultats ne reflètent pas obligatoirement une signification positive ou négative.
-Répartition selon le nombre de fleurs
-Les 28 communes sont réparties comme suit :
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Liste_des_villes_et_villages_fleuris_de_la_Gironde</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_villes_et_villages_fleuris_de_la_Gironde</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Communes labellisées</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Répartition selon le nombre de fleurs</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Les 28 communes sont réparties comme suit :
 4 fleurs : 1 commune. 
 3 fleurs : 9 communes.
 2 fleurs : 13 communes.
-1 fleur : 5 communes.
-Liste des communes
-La liste suivante répertorie les communes des Landes labellisées « Ville ou village fleuri »[a] (la ou les communes promues en 2023 sont identifiées en caractères gras) :
-4 fleurs
+1 fleur : 5 communes.</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Liste_des_villes_et_villages_fleuris_de_la_Gironde</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_villes_et_villages_fleuris_de_la_Gironde</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Communes labellisées</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Liste des communes</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La liste suivante répertorie les communes des Landes labellisées « Ville ou village fleuri »[a] (la ou les communes promues en 2023 sont identifiées en caractères gras) :
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Liste_des_villes_et_villages_fleuris_de_la_Gironde</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_villes_et_villages_fleuris_de_la_Gironde</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Communes labellisées</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Liste des communes</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>4 fleurs</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 Blanquefort
-3 fleurs
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Liste_des_villes_et_villages_fleuris_de_la_Gironde</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_villes_et_villages_fleuris_de_la_Gironde</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Communes labellisées</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Liste des communes</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>3 fleurs</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 Bègles
 Bordeaux
 Bruges
@@ -535,7 +698,47 @@
 Mérignac
 Saint-Médard-en-Jalles
 Talence
-2 fleurs
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Liste_des_villes_et_villages_fleuris_de_la_Gironde</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_villes_et_villages_fleuris_de_la_Gironde</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Communes labellisées</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Liste des communes</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>2 fleurs</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 Ambès
 Artigues-près-Bordeaux
 Bassens
@@ -549,7 +752,47 @@
 Saint-Ciers-sur-Gironde
 Saint-Vivien-de-Monségur
 Villegouge
-1 fleur
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Liste_des_villes_et_villages_fleuris_de_la_Gironde</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_villes_et_villages_fleuris_de_la_Gironde</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Communes labellisées</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Liste des communes</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>1 fleur</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 Porte-de-Benauge
 Rimons
 Saint-Ciers-de-Canesse
